--- a/biology/Botanique/Compsopogonaceae/Compsopogonaceae.xlsx
+++ b/biology/Botanique/Compsopogonaceae/Compsopogonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Compsopogonaceae sont une famille d'algues rouges de l'ordre des Compsopogonales, dont le genre type Compsopogon a été trouvé dans les eaux douces de l'Oued El Hout près du Lac de Fetzara, Algérie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Compsopogonaceae sont une famille d'algues rouges de l'ordre des Compsopogonales, dont le genre type Compsopogon a été trouvé dans les eaux douces de l'Oued El Hout près du Lac de Fetzara, Algérie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Compsopogonaceae a été créée en 1896 par le botaniste allemand Friedrich Schmitz (d) (1850-1895).
 </t>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Compsopogon dérivé du grec κομψο / kompson, « élégant », et πώγων / pógon, « barbe », littéralement « belle barbe ».
 </t>
@@ -573,16 +589,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 décembre 2021)[2] et NCBI  (24 décembre 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 décembre 2021) et NCBI  (24 décembre 2021) :
 Compsopogon Montagne
 Compsopogonopsis V. Krishnamurthy
 Pulvinaster J.A.West, G.C.Zuccarello &amp; J.L.Scott
-Selon ITIS      (24 décembre 2021)[4] :
+Selon ITIS      (24 décembre 2021) :
 Compsopogon Montagne
 Compsopogonopsis V. Krishnamurthy
-Selon World Register of Marine Species                               (24 décembre 2021)[5] :
+Selon World Register of Marine Species                               (24 décembre 2021) :
 Compsopogon Montagne, 1846
 Pulvinaster J.A.West, G.C.Zuccarello &amp; J.L.Scott, 2007</t>
         </is>
